--- a/xlsx/table.xlsx
+++ b/xlsx/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT-GEN\API\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D0D27-D4C9-4CB8-A42C-F309C3A0D4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B7A45E-A37B-40E0-BB89-AD315BDCCF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -704,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88:N90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,6 +2657,16 @@
       <c r="O91" s="15"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B7:B9">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E9 H7:H9 K7:K9 N7:N9 B12:B14 E12:E14 H12:H14 K12:K14 N12:N14 B22:B24 E22:E24 H22:H24 K22:K24 N22:N24 B27:B29 E27:E29 H27:H29 K27:K29 N27:N29 B37:B39 E37:E39 H37:H39 K37:K39 N37:N39 B42:B44 E42:E44 H42:H44 K42:K44 N42:N44 B53:B55 E53:E55 B58:B60 E58:E60 H53:H55 H58:H60 K53:K55 K58:K60 N53:N55 N58:N60 B68:B70 B73:B75 B83:B85 B88:B90 E83:E85 E88:E90 E68:E70 E73:E75 H68:H70 K68:K70 H73:H75 K73:K75 N68:N70 N73:N75 H83:H85 H88:H90 K83:K85 K88:K90 N83:N85 N88:N90">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
